--- a/outputs/role_simple_context_ex_30.xlsx
+++ b/outputs/role_simple_context_ex_30.xlsx
@@ -456,24 +456,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3	Not comfortable with him taking the pill - brain; 5	Not comfortable with him taking the pill - other side effect; 2	Not comfortable with him taking the pill - general; 5	Not comfortable with him taking the pill - risksComment:
-John is healthy and is not suffering from any sort of problem. He is already sociable and it seems odd that he would seek to make himself even more sociable. I would be worried about side effects as well, though ultimately it is up to John to make decisions in his own life.
-4	Not comfortable with him taking the pill - side effect; 6	Not comfortable with him taking the pill â€“ no need, nor medically necessary; 18	Comfortable with him taking the pill - his choice
-23	Comfortable with him taking the pill - brain
-24	Comfortable with him taking the pill - other side effect; 5	Not comfortable with him taking the pill - risks
-27	Comfortable with him taking the pill - social pressure
-28	Comfortable with him taking the pill - other side effect
-29	Comfortable with him taking the pill - benefits
-30	Comfortable with him taking the pill - risks
-31	Comfortable with him taking the pill - moral concerns
-32	Comfortable with him taking the pill - social pressure to fit in
-33	Comfortable with him taking the pill - other scientific concerns
-34	Other
-John is healthy and is not suffering from any sort of problem. He is already sociable and it seems odd that he would seek to make himself even more sociable. I would be worried about side effects as well, though ultimately it is up to John to make decisions in his own life.
-4	Not comfortable with him taking the pill - no specific reason
-5	Not comfortable with him taking the pill - changing the brain
-6	Not comfortable with him taking the pill - side effect; 7	Not comfortable with him taking the pill - general; 8	Not comfortable with him taking the pill - affective; 9	Not comfortable with him taking the pill - social (CAS)
-10	Not comfortable with him taking the pill</t>
+          <t xml:space="preserve"> 6	Not comfortable with him taking the pill - no need, nor medically necessary; 18	Comfortable with him taking the pill - his choice</t>
         </is>
       </c>
     </row>
@@ -488,7 +471,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3	Not comfortable with him taking the pill - brain; 5	Not comfortable with him taking the pill - side effect; 8	Not comfortable with him taking the pill - general; 9	Not comfortable with him taking the pill - risks; 10	Comfortable with him taking the pill - consent/informed decision; 11	Comfortable with him taking the pill - no pressure to take it; 12	Comfortable with him taking the pill - legal or prescribed; 13	Comfortable with him taking the pill - no harm to himself or others; 14	Comfortable with him taking the pill - other: fairness, social issues, character; 15	Comfortable with him taking the pill - permanent changes (brain concern?); 16	Comfortable with him taking the pill - not changing anything fundamental; 17	Comfortable with him taking the pill - his choice; 18	Comfortable with him taking the pill - the benefits of using science or other means to improve ourselves; 19	Comfortable with him taking the pill - benefits outweight the risks; 20	Comfortable with him taking the pill - consent/informed decision; 21	Comfortable with him taking the pill - no pressure to take it; 22	Comfortable with him taking the pill - legal or prescribed; 23	Comfortable with him taking the pill - no harm to himself or others; 24	Comfortable with him taking the pill - other: fairness, social issues, character; 25	Comfortable with him taking the pill - permanent changes (brain concern?); 26	Comfortable with him taking the pill - not changing anything fundamental; 27	Comfortable with him taking the pill - his choice; 28	Comfortable with him taking the pill - the benefits of using science or other means to improve ourselves; 29	Comfortable with him taking the pill - benefits outweight the risks; 30	Comfortable with him taking the pill - consent/informed decision</t>
+          <t xml:space="preserve"> 6	Not comfortable with him taking the pill - no need, nor medically necessary</t>
         </is>
       </c>
     </row>
@@ -503,7 +486,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 5	Not comfortable with him taking the pill - general concerns about pills; 8	Not comfortable with him taking the pill - moral concerns; 10	Comfortable with him taking the pill - social pressure to fit in; 11	Comfortable with him taking the pill - legal or prescribed; 14	Not comfortable with him taking the pill - new pill; 18	Comfortable with him taking the pill - permanent changes (brain concern?)</t>
+          <t xml:space="preserve"> 6	Not comfortable with him taking the pill - no need, nor medically necessary; 18	Comfortable with him taking the pill - his choice</t>
         </is>
       </c>
     </row>
@@ -518,8 +501,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1	Not comfortable with him taking the pill - no specific reason; 3	Not comfortable with him taking the pill - changing the brain; 5	Not comfortable with him taking the pill - general concerns about pills; 8	Not comfortable with him taking the pill - risks outweight the benefits; 11	Comfortable with him taking the pill - social pressure to fit in; 12	Not comfortable with him taking the pill - legal or prescribed; 13	Comfortable with him taking the pill - god or religious concerns; 14	Not comfortable with him taking the pill - other: fairness, social issues, character; 15	Other
-16	Comfortable with him taking the pill - his choice; 17	Comfortable with him taking the pill - not changing anything fundamental; 18	Comfortable with him taking the pill - his choice; 19	Comfortable with him taking the pill - minor or no side effects; 20	Comfortable with him taking the pill - comfortable with pills and medication; 22	Comfortable with him taking the pill - his choice; 23	Comfortable with him taking the pill - his choice; 24	Comfortable with him taking the pill - the benefits of using science or other means to improve ourselves; 25	Comfortable with him taking the pill - consent/informed decision; 26	Comfortable with him taking the pill - no pressure to take it; 27	Comfortable with him taking the pill - legal or prescribed; 28	Comfortable with him taking the pill - no harm to himself or others; 29	Comfortable with him taking the pill - other specific reason; 30	Other</t>
+          <t xml:space="preserve"> 6	Not comfortable with him taking the pill - no need, nor medically necessary; 11	Not comfortable with him taking the pill - legal or prescribed; 26	Comfortable with him taking the pill - legal or prescribed.</t>
         </is>
       </c>
     </row>
@@ -534,7 +516,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4	Not comfortable with him taking the pill - side effect; 6	Not comfortable with him taking the pill â€“ no need, nor medically necessary; 18	Comfortable with him taking the pill - his choice</t>
+          <t xml:space="preserve"> 4	Not comfortable with him taking the pill - side effect; 6	Not comfortable with him taking the pill - no need, nor medically necessary; 18	Comfortable with him taking the pill - his choice</t>
         </is>
       </c>
     </row>
@@ -549,31 +531,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1	Not comfortable with him taking the pill - no specific reason; 3	Not comfortable with him taking the pill - changing brain content
-2	Not comfortable with him taking the pill - changing the brain content
-3	Not comfortable with him taking the pill - side effect; 5	Not comfortable with him taking the pill - general concerns about pills; 6	Not comfortable with him taking the pill - moral concerns; 8	Not comfortable with him taking the pill - risks outweight the benefits
-9	Not comfortable with him taking the pill - dependence, addiction
-10	Not comfortable with him taking the pill - social pressure to fit in
-11	Not comfortable with him taking the pill - legal or prescribed
-12	Not comfortable with him taking the pill - God or religious concerns
-13	Not comfortable with him taking the pill - other: fairness, social issues, character
-14	Not comfortable with him taking the pill - permanent changes (brain concern?)
-15	Comfortable with him taking the pill - no specific reason
-16	Comfortable with him taking the pill - not changing anything fundamental
-17	Comfortable with him taking the pill - his choice
-18	Comfortable with him taking the pill - minor or no side effects
-19	Comfortable with him taking the pill - consent/informed decision
-20	Comfortable with him taking the pill - benefits outweight the risks
-21	Comfortable with him taking the pill - "positive" benefits
-22	Comfortable with him taking the pill - nothing wrong with using science or other means to improve ourselves
-23	Comfortable with him taking the pill - "positive" benefits
-24	Comfortable with him taking the pill - "positive" choices
-25	Comfortable with him taking the pill - "positive" decisions
-26	Comfortable with him taking the pill - "positive" pressure
-27	Comfortable with him taking the pill - "positive" social issues
-28	Comfortable with him taking the pill - "positive" moral concerns
-29	Comfortable with him taking the pill - "positive" side effects
-30	Comfortable with him taking the pill - "positive" risks</t>
+          <t xml:space="preserve"> 6	Not comfortable with him taking the pill - no need, nor medically necessary; 14	Not comfortable with him taking the pill - status quo : new pill; 15	Not comfortable with him taking the pill - permanent changes (brain concern?)
+Summary:
+Text 1: Codes 2, 5, 7, 10, 13
+Text 2: Codes 4, 6, 14, 15
+Text 3: Codes 6, 14, 15</t>
         </is>
       </c>
     </row>
@@ -588,7 +550,10 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3	Not comfortable with him taking the pill - brain; 5	Not comfortable with him taking the pill - other side effect; 2	Not comfortable with him taking the pill - general; 7	Not comfortable with him taking the pill - risks; 9	Not comfortable with him taking the pill - dependence; 10	Not comfortable with him taking the pill - addiction; 11	Not comfortable with him taking the pill - social pressure; 12	Not comfortable with him taking the pill - social pressure to fit in; 13	Not comfortable with him taking the pill - religious; 14	Not comfortable with him taking the pill - other: fairness, social issues, character; 15	Not comfortable with him taking the pill - permanent changes (brain concern?)); 16	Comfortable with him taking the pill - his choice; 17	Comfortable with him taking the pill - not changing anything fundamental; 18	Comfortable with him taking the pill - his choice; 19	Comfortable with him taking the pill - positive benefits; 20	Comfortable with him taking the pill - nothing wrong with using science or other means to improve ourselves; 21	Comfortable with him taking the pill - benefits outweight the risks; 24	Comfortable with him taking the pill - consent/informed decision; 25	Comfortable with him taking the pill - no pressure to take it; 26	Comfortable with him taking the pill - legal or prescribed; 27	Comfortable with him taking the pill - no harm to himself or others; 28	Comfortable with him taking the pill - other specific reason; 29	Not comfortable with him taking the pill - this is not what you meant by "you." 30	Other</t>
+          <t xml:space="preserve"> 2	Not comfortable with him taking the pill - changing something fundamental; 7	Not comfortable with him taking the pill - naturalistic moral concerns; 11	Not comfortable with him taking the pill - legal or prescribed.
+Summary:
+Text 1: Codes 4 and 6
+Text 2: Codes 2, 7, and 11</t>
         </is>
       </c>
     </row>
@@ -603,14 +568,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3	Not comfortable with him taking the pill - brain; 5	Not comfortable with him taking the pill - other; 2	Not comfortable with him taking the pill - enhancement; 1	Not comfortable with him taking the pill - enhancement; 9	Not comfortable with him taking the pill - risksComment:
-1 	John is healthy and is not suffering from any sort of problem. He is already sociable and it seems odd that he would seek to make himself even more sociable. I would be worried about side effects as well, though ultimately it is up to John to make decisions in his own life.
-2 	John is healthy and is not suffering from any sort of problem. He is already sociable and it seems odd that he would seek to make himself even more sociable. I would be worried about side effects as well, though ultimately it is up to John to make decisions in his own life.
-3 	John is healthy and is not suffering from any sort of problem. He is already sociable and it seems odd that he would seek to make himself even more sociable. I would be worried about side effects as well, though ultimately it is up to John to make decisions in his own life.
-4 	John is healthy and is not suffering from any sort of problem. He is already sociable and it seems odd that he would seek to make himself even more sociable. I would be worried about side effects as well, though ultimately it is up to John to make decisions in his own life.
-5 	John is healthy and is not suffering from any sort of problem. He is already sociable and it seems odd that he would seek to make himself even more sociable. I would be worried about side effects as well, though ultimately it is up to John to make decisions in his own life.
-6 	John is healthy and is not suffering from any sort of problem. He is already sociable and it seems odd that he would seek to make himself even more sociable. I would be worried about side effects as well, though ultimately it is up to John to make decisions in his own life.
-7 	John is healthy and is not</t>
+          <t xml:space="preserve"> 19	Comfortable with him taking the pill - minor or no side effects; 18	Comfortable with him taking the pill - his choice.
+Summary:
+Text 1: Codes 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13
+Text 2: Codes 19, 18
+Other Comment: Codes 4, 6, 18, 19</t>
         </is>
       </c>
     </row>
@@ -625,7 +587,10 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1	Not comfortable with him taking the pill - no specific reason; 2	Not comfortable with him taking the pill - changing something fundamental; 4	Not comfortable with him taking the pill - side effect; 6	Not comfortable with him taking the pill - general concerns about pills; 8	Not comfortable with him taking the pill - risks outweight the benefits; 10	Comfortable with him taking the pill - dependent; 12	Not comfortable with him taking the pill - social pressure to fit in; 14	Not comfortable with him taking the pill - status quo : new pill; 16	Not comfortable with him taking the pill - permanent changes (brain concern?); 18	Comfortable with him taking the pill - moral concerns; 20	Comfortable with him taking the pill - social pressure to take in to the family; 22	Comfortable with him taking the pill - social pressure to take in to the family; 24	Comfortable with him taking the pill - moral concerns; 26	Comfortable with him taking the pill - social pressure to take in to the family; 28	Comfortable with him taking the pill - other specific reason; 30	Other</t>
+          <t xml:space="preserve"> 2	Not comfortable with him taking the pill - changing something fundamental; 6	Not comfortable with him taking the pill - no need, nor medically necessary.
+Summary:
+Text 1: Codes 4 and 6
+Text 2: Codes 2 and 6</t>
         </is>
       </c>
     </row>
@@ -640,8 +605,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>
-</t>
+          <t xml:space="preserve"> 18	Comfortable with him taking the pill - his choice; 19	Comfortable with him taking the pill - minor or no side effects; 21	Comfortable with him taking the pill - positive benefits; 22	Comfortable with him taking the pill - nothing wrong with using science or other means to improve ourselves; 23	Comfortable with him taking the pill - benefits outweight the risks; 24	Comfortable with him taking the pill - consent/informed decision; 27	Comfortable with him taking the pill - no harm to himself or others.</t>
         </is>
       </c>
     </row>
@@ -656,7 +620,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4	Not comfortable with him taking the pill - side effect; 6	Not comfortable with him taking the pill - changing brain; 18	Comfortable with him taking the pill - his choice</t>
+          <t xml:space="preserve"> 6	Not comfortable with him taking the pill - no need, nor medically necessary; 14	Not comfortable with him taking the pill - status quo : new pill; 18	Comfortable with him taking the pill - his choice.</t>
         </is>
       </c>
     </row>
@@ -671,15 +635,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-1	John is healthy and is not suffering from any sort of problem. He is already sociable and it seems odd that he would seek to make himself even more sociable. I would be worried about side effects as well, though ultimately it is up to John to make decisions in his own life."
-2	John is healthy and is not suffering from any sort of problem. He is already sociable and it seems odd that he would seek to make himself even more sociable. I would be worried about side effects as well, though ultimately it is up to John to make decisions in his own life."
-3	John is healthy and is not suffering from any sort of problem. He is already sociable and it seems odd that he would seek to make himself even more sociable. I would be worried about side effects as well, though ultimately it is up to John to make decisions in his own life."
-4	John is healthy and is not suffering from any sort of problem. He is already sociable and it seems odd that he would seek to make himself even more sociable. I would be worried about side effects as well, though ultimately it is up to John to make decisions in his own life."
-5	John is healthy and is not suffering from any sort of problem. He is already sociable and it seems odd that he would seek to make himself even more sociable. I would be worried about side effects as well, though ultimately it is up to John to make decisions in his own life."
-6	John is healthy and is not suffering from any sort of problem. He is already sociable and it seems odd that he would seek to make himself even more sociable. I would be worried about side effects as well, though ultimately it is up to John to make decisions in his own life."
-7	John is healthy and is not suffering from any sort of problem. He is already sociable and it seems odd that he would seek to make himself even more sociable. I would be worried about side effects as well, though ultimately it is up to John to make decisions in his own life."
-8	John is healthy and is</t>
+          <t xml:space="preserve"> 6	Not comfortable with him taking the pill - no need, nor medically necessary; 18	Comfortable with him taking the pill - his choice</t>
         </is>
       </c>
     </row>
@@ -694,8 +650,10 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3	Not comfortable with him taking the pill - brain; 5	Not comfortable with him taking the pill - other: fairness, social issues, character; 8	Not comfortable with him taking the pill - risks; 9	Not comfortable with him taking the pill - dependence, addiction; 10	Not comfortable with him taking the pill - social pressure to fit in; 11	Not comfortable with him taking the pill - legal or prescribed; 12	Not comfortable with him taking the pill - god or religious concerns; 13	Not comfortable with him taking the pill - other: fairness, social issues, character; 14	Not comfortable with him taking the pill - permanent changes (brain concern?)
-15	Comfortable with him taking the pill - no specific reason; 16	Comfortable with him taking the pill - not changing anything fundamental; 17	Comfortable with him taking the pill - his choice; 18	Comfortable with him taking the pill - positive benefits; 20	Comfortable with him taking the pill - nothing wrong with using science or other means to improve ourselves; 24	Comfortable with him taking the pill - consent/informed decision; 25	Comfortable with him taking the pill - no pressure to take it; 26	Comfortable with him taking the pill - legal or prescribed; 27	Comfortable with him taking the pill - no harm to himself or others; 28	Comfortable with him taking the pill - other specific reason; 29	Not comfortable with him taking the pill - social pressure to fit in; 30	Not comfortable with him taking the pill - legal or prescribed</t>
+          <t xml:space="preserve"> 7	Not comfortable with him taking the pill - naturalistic moral concerns; 11	Not comfortable with him taking the pill - legal or prescribed
+Summary:
+Text 1: Codes 4 and 6
+Text 2: Codes 7 and 11</t>
         </is>
       </c>
     </row>
@@ -710,35 +668,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-1	John is comfortable with him taking the pill.
-2	John is not comfortable with him taking the pill.
-3	John is comfortable with him taking the pill - changing the brain.
-4	John is comfortable with him taking the pill - side effect.
-5	John is comfortable with him taking the pill - general concerns about pills.
-6	John is comfortable with him taking the pill - risks outweight the benefits.
-7	John is comfortable with him taking the pill - dependence, addiction
-8	John is comfortable with him taking the pill - social pressure to fit in.
-9	John is comfortable with him taking the pill - legal or prescribed
-10	John is comfortable with him taking the pill - no harm to himself or others
-11	John is comfortable with him taking the pill - other: fairness, social issues, character
-12	John is comfortable with him taking the pill - the new pill
-13	John is comfortable with him taking the pill - permanent changes (brain concern?)
-14	John is comfortable with him taking the pill - his choice.
-15	John is comfortable with him taking the pill - minor or no side effects
-16	John is comfortable with him taking the pill - side effects as well as medication
-17	John is comfortable with him taking the pill - comfortable with pills and medication
-18	John is comfortable with him taking the pill - positive benefits
-19	John is comfortable with him taking the pill - something to improve ourselves
-20	John is comfortable with him taking the pill - harm outweight the benefits
-21	John is comfortable with him taking the pill - social pressure to fit in
-22	John is comfortable with him taking the pill - legal or prescribed
-23	John is comfortable with him taking the pill - no harm to himself or others
-24	John is comfortable with him taking the pill - other: fairness, social issues, character
-25	John is comfortable with him taking the pill - the new pill
-26	John is comfortable with him taking the pill - permanent changes (brain concern?)
-27	John is comfortable with him taking the pill - his choice.
-28	John is comfortable with</t>
+          <t xml:space="preserve"> 21	Comfortable with him taking the pill - positive benefits; 24	Comfortable with him taking the pill - consent/informed decision.</t>
         </is>
       </c>
     </row>
@@ -753,7 +683,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3	Not comfortable with him taking the pill - brain; 5	Not comfortable with him taking the pill - side effect; 2	Not comfortable with him taking the pill - general; 6	Not comfortable with him taking the pill - harm; 7	Not comfortable with him taking the pill - consent; 8	Comfortable with him taking the pill - no pressure; 9	Comfortable with him taking the pill - legal; 10	Comfortable with him taking the pill - harm; 11	Not comfortable with him taking the pill - consent; 12	Comfortable with him taking the pill - fairness; 13	Comfortable with him taking the pill - status quo; 14	Comfortable with him taking the pill - permanent changes; 15	Not comfortable with him taking the pill - permanent changes; 16	Comfortable with him taking the pill - his choice; 17	Comfortable with him taking the pill - benefits; 18	Comfortable with him taking the pill - harm; 19	Comfortable with him taking the pill - benefits; 20	Comfortable with him taking the pill - positive; 21	Comfortable with him taking the pill - thoughts; 22	Comfortable with him taking the pill - risks; 23	Comfortable with him taking the pill - social pressure; 24	Comfortable with him taking the pill - legal; 25	Comfortable with him taking the pill - harm; 26	Not comfortable with him taking the pill - brain; 27	Not comfortable with him taking the pill - side effect; 28	Not comfortable with him taking the pill - general; 29	Not comfortable with him taking the pill - harm; 30	Not comfortable with him taking the pill - consent; 31	Comfortable with him taking the pill - fairness; 32	Comfortable with him taking the pill - status quo; 33	Comfortable with him taking the pill - permanent changes; 34	Not comfortable with him taking the pill - permanent changes; 35	Not comfortable with him taking the pill - his choice; 36	Comfortable with him taking the pill - benefits; 37	Comfortable with him taking the pill - risks; 38	Comfortable with him taking the pill - social pressure; 39	Comfortable with</t>
+          <t xml:space="preserve"> 6	Not comfortable with him taking the pill - no need, nor medically necessary</t>
         </is>
       </c>
     </row>
@@ -768,7 +698,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3	Not comfortable with him taking the pill - brain; 5	Not comfortable with him taking the pill - other side effect; 8	Not comfortable with him taking the pill - general; 9	Comfortable with him taking the pill - choice; 12	Not comfortable with him taking the pill - risksComment:John is not comfortable with taking pills, but he is comfortable with himself.</t>
+          <t xml:space="preserve"> 9	Not comfortable with him taking the pill - dependence, addiction; 18	Comfortable with him taking the pill - his choice</t>
         </is>
       </c>
     </row>
@@ -783,7 +713,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4	Not comfortable with him taking the pill - change the brain; 6	Not comfortable with him taking the pill - side effect; 18	Comfortable with him taking the pill - his choice</t>
+          <t xml:space="preserve"> 4	Not comfortable with him taking the pill - side effect; 18	Comfortable with him taking the pill - his choice</t>
         </is>
       </c>
     </row>
@@ -798,9 +728,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3	Not comfortable with him taking the pill - impact; 5	Not comfortable with him taking the pill - general concerns about pills; 8	Not comfortable with him taking the pill - risks outweight the benefits; 9	Not comfortable with him taking the pill - dependence, addiction; 10	Not comfortable with him taking the pill - social pressure to fit in; 11	Not comfortable with him taking the pill - legal or prescribed; 12	Not comfortable with him taking the pill - god or religious concerns; 13	Not comfortable with him taking the pill - other: fairness, social issues, character
-14	Not comfortable with him taking the pill - permanent changes (brain concern?)
-15	Comfortable with him taking the pill - no specific reason; 16	Comfortable with him taking the pill - not changing anything fundamental; 17	Comfortable with him taking the pill - his choice; 18	Comfortable with him taking the pill - positive benefits; 19	Comfortable with him taking the pill - nothing wrong with using science or other means to improve ourselves; 20	Comfortable with him taking the pill - benefits outweight the risks; 24	Comfortable with him taking the pill - consent/informed decision; 25	Comfortable with him taking the pill - no pressure to take it; 26	Comfortable with him taking the pill - legal or prescribed; 27	Comfortable with him taking the pill - no harm to himself or others; 28	Comfortable with him taking the pill - other specific reason; 29	Not comfortable with him taking the pill - permanent changes (brain concern?); 30	Comfortable with him taking the pill - no specific reason; 31	Comfortable with him taking the pill - not changing anything fundamental; 32	Comfortable with him taking the pill - his choice; 33	Comfortable with him taking the pill - positive effects</t>
+          <t xml:space="preserve"> 3	Not comfortable with him taking the pill - changing the brain; 8	Not comfortable with him taking the pill - risks outweight the benefits; 21	Comfortable with him taking the pill - positive benefits; 28	Comfortable with him taking the pill - other specific reason</t>
         </is>
       </c>
     </row>
@@ -815,7 +743,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1	Not comfortable with him taking the pill - no specific reason; 2	Not comfortable with him taking the pill - changing something fundamental; 4	Not comfortable with him taking the pill - side effect; 6	Not comfortable with him taking the pill - general concerns about pills; 8	Not comfortable with him taking the pill - risks outweight the benefits; 10	Comfortable with him taking the pill - consent/informed decision; 12	Not comfortable with him taking the pill - no harm to himself or others; 14	Comfortable with him taking the pill - other: fairness, social issues, character; 16	Comfortable with him taking the pill - permanent changes (brain concern?)</t>
+          <t xml:space="preserve"> 4	Not comfortable with him taking the pill - side effect; 6	Not comfortable with him taking the pill - no need, nor medically necessary; 14	Not comfortable with him taking the pill - status quo : new pill; 15	Not comfortable with him taking the pill - permanent changes (brain concern?); 18	Comfortable with him taking the pill - his choice.</t>
         </is>
       </c>
     </row>
@@ -830,23 +758,10 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-1	John is comfortable with him taking the pill - his choice.
-2	John is comfortable with him taking the pill - changing something fundamental.
-3	John is comfortable with him taking the pill - changing the brain.
-4	John is comfortable with him taking the pill - side effect.
-5	John is comfortable with him taking the pill - general concerns about pills.
-6	John is comfortable with him taking the pill - risks outweight the benefits.
-7	John is comfortable with him taking the pill - dependence, addiction.
-8	John is comfortable with him taking the pill - social pressure to fit in.
-9	John is comfortable with him taking the pill - legal or prescribed.
-10	John is comfortable with him taking the pill - no harm to himself or others.
-11	John is comfortable with him taking the pill - other specific reason.
-12	John is comfortable with him taking the pill - fairlh experience.
-13	John is comfortable with him taking the pill - the current state of the world.
-14	John is comfortable with him taking the pill - moral concerns.
-15	John is comfortable with him taking the pill - self-esteem.
-16	John is comfortable with him taking the pill - permanent changes (brain concern?)</t>
+          <t xml:space="preserve"> 26	Comfortable with him taking the pill - legal or prescribed; 28	Comfortable with him taking the pill - other specific reason.
+Summary:
+Text 1: Codes 4 and 6
+Text 2: Codes 26 and 28</t>
         </is>
       </c>
     </row>
@@ -861,9 +776,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3	Not comfortable with him taking the pill - brain concern; 5	Not comfortable with him taking the pill - other: fairness, social issues, character; 8	Not comfortable with him taking the pill - risks outweight the benefits; 9	Not comfortable with him taking the pill - dependence, addiction; 10	Not comfortable with him taking the pill - social pressure to fit in; 11	Not comfortable with him taking the pill - legal or prescribed; 12	Not comfortable with him taking the pill - god or religious concerns; 13	Not comfortable with him taking the pill - other: fairness, social issues, character; 16	Comfortable with him taking the pill - permanent changes (brain concern?)
-18	Comfortable with him taking the pill - his choice; 19	Comfortable with him taking the pill - not changing anything fundamental; 20	Comfortable with him taking the pill - his choice; 23	Comfortable with him taking the pill - benefits outweight the risks; 24	Comfortable with him taking the pill - consent/informed decision; 25	Comfortable with him taking the pill - no pressure to take it; 26	Comfortable with him taking the pill - legal or prescribed; 27	Not comfortable with him taking the pill - his opinion; 28	Comfortable with him taking the pill - not changing anything fundamental; 29	Comfortable with him taking the pill - permanent changes (brain concern?)
-30	Comfortable with him taking the pill - long-term effects</t>
+          <t xml:space="preserve"> 6	Not comfortable with him taking the pill - no need, nor medically necessary; 4	Not comfortable with him taking the pill - side effect.
+Summary:
+Text 1: Codes 2, 5, 7, 8, 10, 13
+Text 2: Codes 6, 4
+The first text was coded with codes 2, 5, 7, 8, 10, and 13, indicating that the speaker is not comfortable with the person taking the pill for reasons such as changing something fundamental, general concerns about pills, naturalistic moral concerns, risks outweighing the benefits, social pressure to fit in, and other reasons such as fairness, social issues, and character.
+The second text was coded with codes 6 and 4, indicating that the speaker is not comfortable with the person taking the pill for reasons such as no need nor medically necessary and side effects.</t>
         </is>
       </c>
     </row>
@@ -878,55 +796,21 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3	Not comfortable with him taking the pill - brain concern; 5	Not comfortable with him taking the pill - other side effect; 8	Not comfortable with him taking the pill - consent/informed decision; 9	Comfortable with him taking the pill - social pressure to fit in; 10	Comfortable with him taking the pill - legal or prescribed; 11	Comfortable with him taking the pill - no harm to himself or others; 12	Not comfortable with him taking the pill - other: fairness, social issues, character
-13	Other
-14	15	16	17	18	19	20	21	22	23	24	25	26	27	28	29	30	31	32	33	34	35	36	37	38
- 34	35	36	37	38	39	40	41	42	43	44	45
- 44	45	46	47	48	49	50
-51	52	53	54	55
-56	57	58
-59	60
-61	62
-63
-64
-65
-66
-67
-68
-69
-70
-70
-71
-72
-73
-74
-75
-76
-77
-78
-79
-80
-81
-82
-83
-84
-85
-86
-87
-88
-89
-90
-91
-92
-93
-94
-95
-96
-97
-98
-99
-100
-Loading...</t>
+          <t xml:space="preserve"> 18	Comfortable with him taking the pill - his choice; 24	Comfortable with him taking the pill - consent/informed decision; 27	Comfortable with him taking the pill - no harm to himself or others.
+Summary:
+Text 1: Not comfortable with him taking the pill - no specific reason given: Code 2 Not comfortable with him taking the pill - changing something fundamental
+Text 2: Not comfortable with him taking the pill - changing the brain: Code 3 Not comfortable with him taking the pill - changing the brain
+Text 3: Not comfortable with him taking the pill - side effect: Code 4 Not comfortable with him taking the pill - side effect
+Text 4: Not comfortable with him taking the pill - general concerns about pills: Code 5 Not comfortable with him taking the pill - general concerns about pills
+Text 5: Not comfortable with him taking the pill - no need, nor medically necessary: Code 6 Not comfortable with him taking the pill - no need, nor medically necessary
+Text 6: Not comfortable with him taking the pill - naturalistic moral concerns: Code 7 Not comfortable with him taking the pill - naturalistic moral concerns
+Text 7: Not comfortable with him taking the pill - risks outweight the benefits: Code 8 Not comfortable with him taking the pill - risks outweight the benefits
+Text 8: Not comfortable with him taking the pill - dependence, addiction: Code 9 Not comfortable with him taking the pill - dependence, addiction
+Text 9: Not comfortable with him taking the pill - social pressure to fit in: Code 10 Not comfortable with him taking the pill - social pressure to fit in
+Text 10: Not comfortable with him taking the pill - legal or prescribed: Code 11 Not comfortable with him taking the pill - legal or prescribed
+Text 11: Not comfortable with him taking the pill - god or religious concerns: Code 12 Not comfortable with him taking the pill - god or religious concerns
+Text 12: Not comfortable with him taking the pill - other: fairness, social issues, character: Code 13 Not comfortable with him taking the pill - other: fairness, social issues, character
+Text 13: Not comfortable with him taking the pill - status quo : new pill: Code 14 Not comfortable with him</t>
         </is>
       </c>
     </row>
@@ -941,7 +825,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4	Not comfortable with him taking the pill - side effect; 6	Not comfortable with him taking the pill â€“ changing something fundamental; 18	Comfortable with him taking the pill - his choice; 25	Comfortable with him taking the pill - consent/informed decision</t>
+          <t xml:space="preserve"> 19	Comfortable with him taking the pill - minor or no side effects; 21	Comfortable with him taking the pill - positive benefits; 24	Comfortable with him taking the pill - consent/informed decision.
+Summary:
+Text 1: Codes 2, 3, 4, 5, 7, 8, 9, 10, 11, 12, 13
+Text 2: Codes 19, 21, 24 
+Text 3: Codes 4, 6, 18</t>
         </is>
       </c>
     </row>
@@ -956,7 +844,10 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1	Not comfortable with him taking the pill - no specific reason; 3	Not comfortable with him taking the pill - changing the brain; 5	Not comfortable with him taking the pill - general concerns about pills; 8	Not comfortable with him taking the pill - risks outweight the benefits; 9	Not comfortable with him taking the pill - dependence, addiction; 10	Not comfortable with him taking the pill - social pressure to fit in; 11	Not comfortable with him taking the pill - legal or prescribed; 12	Not comfortable with him taking the pill - God or religious concerns; 13	Not comfortable with him taking the pill - other: fairness, social issues, character; 14	Not comfortable with him taking the pill - permanent changes (brain concern?)); 16	Comfortable with him taking the pill - no specific reason; 17	Comfortable with him taking the pill - not changing anything fundamental; 18	Comfortable with him taking the pill - his choice; 19	Comfortable with him taking the pill - positive benefits; 20	Comfortable with him taking the pill - nothing wrong with using science or other means to improve ourselves; 23	Comfortable with him taking the pill - benefits outweight the risks; 24	Comfortable with him taking the pill - consent/informed decision; 25	Comfortable with him taking the pill - no pressure to take it; 26	Comfortable with him taking the pill - legal or prescribed; 27	Comfortable with him taking the pill - no harm to himself or others; 28	Comfortable with him taking the pill - other specific reason; 29	Other; 30	Comment:John is healthy and is not suffering from any sort of problem. He is already sociable and it seems odd that he would seek to make himself even more sociable. I would be worried about side effects as well, though ultimately it is up to John to make decisions in his own life.</t>
+          <t xml:space="preserve"> 6	Not comfortable with him taking the pill - no need, nor medically necessary; 11	Not comfortable with him taking the pill - legal or prescribed; 18	Comfortable with him taking the pill - his choice; 24	Comfortable with him taking the pill - consent/informed decision; 27	Comfortable with him taking the pill - no harm to himself or others.
+Summary:
+Text 1: Codes 2, 5, 7, 10, 13
+Text 2: Codes 4, 6, 11, 18, 24, 27</t>
         </is>
       </c>
     </row>
@@ -971,9 +862,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3	Not comfortable with him taking the pill - brain concern; 5	Not comfortable with him taking the pill - side effect; 2	Not comfortable with him taking the pill - general concerns about pills; 7	Not comfortable with him taking the pill - risks outweight the benefits; 9	Not comfortable with him taking the pill - dependence, addiction; 10	Not comfortable with him taking the pill - social pressure to fit in; 11	Not comfortable with him taking the pill - legal or prescribed; 12	Not comfortable with him taking the pill - god or religious concerns; 13	Not comfortable with him taking the pill - other: fairness, social issues, character
-14	Not comfortable with him taking the pill - permanent changes (brain concern?)
-15	Comfortable with him taking the pill - no specific reason; 16	Comfortable with him taking the pill - not changing anything fundamental; 17	Comfortable with him taking the pill - his choice; 18	Comfortable with him taking the pill - positive benefits; 20	 Comfortable with him taking the pill - nothing wrong with using science or other means to improve ourselves; 24	Comfortable with him taking the pill - benefits outweight the risks; 25	 Comfortable with him taking the pill - consent/informed decision; 26	Comfortable with him taking the pill - no pressure to take it; 27	Comfortable with him taking the pill - legal or prescribed; 28	Not comfortable with him taking the pill - god or religious concerns; 29	Other: This text is not comfortable with him taking the pill.</t>
+          <t xml:space="preserve"> 19	Comfortable with him taking the pill - minor or no side effects; 21	Comfortable with him taking the pill - positive benefits; 24	Comfortable with him taking the pill - consent/informed decision; 28	Comfortable with him taking the pill - other specific reason
+Summary:
+Text 1: Not comfortable with him taking the pill - no specific reason given (Code 2: Not comfortable with him taking the pill - changing something fundamental)
+Text 2: Not comfortable with him taking the pill - side effect (Code 4: Not comfortable with him taking the pill - side effect)
+Text 3: Comfortable with him taking the pill - minor or no side effects, positive benefits, consent/informed decision, other specific reason (Codes 19, 21, 24, 28: Comfortable with him taking the pill - minor or no side effects, positive benefits, consent/informed decision, other specific reason)</t>
         </is>
       </c>
     </row>
@@ -988,7 +881,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1	Not comfortable with him taking the pill - no specific reason; 3	Not comfortable with him taking the pill - changing something fundamental; 5	Not comfortable with him taking the pill - side effect; 8	Not comfortable with him taking the pill - general concerns about pills; 11	Comfortable with him taking the pill - legal or prescribed; 14	Comfortable with him taking the pill - status quo : new pill; 18	Comfortable with him taking the pill - comfortable with pills and medication; 25	Comfortable with him taking the pill - consent/informed decision; 28	Comfortable with him taking the pill - no harm to himself or others; 31	Comfortable with him taking the pill - other specific reason</t>
+          <t xml:space="preserve"> 16	Comfortable with him taking the pill - no specific reason; 18	Comfortable with him taking the pill - his choice; 19	Comfortable with him taking the pill - minor or no side effects; 24	Comfortable with him taking the pill - consent/informed decision; 27	Comfortable with him taking the pill - no harm to himself or others.</t>
         </is>
       </c>
     </row>
@@ -1003,7 +896,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3	Not comfortable with him taking the pill - brain concern?; 5	Not comfortable with him taking the pill - other specific reason; 8	Not comfortable with him taking the pill - risks outweight the benefits; 9	Not comfortable with him taking the pill - dependence, addiction; 10	Not comfortable with him taking the pill - social pressure to fit in; 11	Not comfortable with him taking the pill - legal or prescribed; 12	Not comfortable with him taking the pill - god or religious concerns; 13	Not comfortable with him taking the pill - other: fairness, social issues, character; 14	Not comfortable with him taking the pill - permanent changes (brain concern?); 15	Comfortable with him taking the pill - no specific reason; 16	Comfortable with him taking the pill - not changing anything fundamental; 17	Comfortable with him taking the pill - his choice; 18	Comfortable with him taking the pill - positive benefits; 19	Comfortable with him taking the pill - nothing wrong with using science or other means to improve ourselves; 20	Comfortable with him taking the pill - benefits outweight the risks; 25	Comfortable with him taking the pill - consent/informed decision; 26	Comfortable with him taking the pill - no pressure to take it; 27	Comfortable with him taking the pill - legal or prescribed; 28	Comfortable with him taking the pill - god or religious concerns; 29	Not comfortable with him taking the pill - other: fairness, social issues, character; 30	Comfortable with him taking the pill - permanent changes (brain concern?)</t>
+          <t xml:space="preserve"> 18	Comfortable with him taking the pill - his choice</t>
         </is>
       </c>
     </row>
@@ -1018,7 +911,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1	Not comfortable with him taking the pill - no specific reason; 2	Not comfortable with him taking the pill - changing something fundamental; 4	Not comfortable with him taking the pill - side effect; 6	Not comfortable with him taking the pill - general concerns about pills; 8	Not comfortable with him taking the pill - risks outweight the benefits; 10	Comfortable with him taking the pill - consent/informed decision; 12	Comfortable with him taking the pill - no pressure to take it; 14	Comfortable with him taking the pill - legal or prescribed; 16	Comfortable with him taking the pill - not harm to himself or others; 18	Comfortable with him taking the pill - other specific reason; 20	Comfortable with him taking the pill - safe and healthy; 22	Comfortable with him taking the pill - happy with results</t>
+          <t xml:space="preserve"> 18	Comfortable with him taking the pill - his choice; 19	Comfortable with him taking the pill - minor or no side effects; 24	Comfortable with him taking the pill - consent/informed decision.</t>
         </is>
       </c>
     </row>
@@ -1033,7 +926,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 4	Not comfortable with him taking the pill - side effect; 6	Not comfortable with him taking the pill â€“ changing something fundamental; 18	Comfortable with him taking the pill - his choice</t>
+          <t xml:space="preserve"> 3	Not comfortable with him taking the pill - changing the brain; 8	Not comfortable with him taking the pill - risks outweight the benefits; 15	Not comfortable with him taking the pill - permanent changes (brain concern?)</t>
         </is>
       </c>
     </row>
@@ -1048,35 +941,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-1	John is comfortable with him taking the pill - changing something fundamental
-2	John is comfortable with him taking the pill - changing the brain
-3	John is not comfortable with him taking the pill - changing the brain
-4	John is not comfortable with him taking the pill - side effect
-5	John is comfortable with him taking the pill - general concerns about pills
-6	John is comfortable with him taking the pill - risks outweight the benefits
-7	John is comfortable with him taking the pill - dependence, addiction
-8	John is comfortable with him taking the pill - social pressure to fit in
-9	John is comfortable with him taking the pill - legal or prescribed
-10	John is comfortable with him taking the pill - no harm to himself or others
-11	John is comfortable with him taking the pill - other specific reason
-12	John is not comfortable with him taking the pill - fairness, social issues, character
-13	John is comfortable with him taking the pill - permanent changes (brain concern?)
-14	John is comfortable with him taking the pill - something fundamental from the provided list
-15	John is comfortable with him taking the pill - his choice
-16	John is comfortable with him taking the pill - minor or no side effects
-17	John is comfortable with him taking the pill - comfortable with pills and medication
-18	John is comfortable with him taking the pill - positive benefits
-19	John is comfortable with him taking the pill - something important from the provided list
-20	John is comfortable with him taking the pill - consent/informed decision
-21	John is comfortable with him taking the pill - no pressure to take it
-22	John is comfortable with him taking the pill - legal or prescribed
-23	John is comfortable with him taking the pill - no harm to himself or others
-24	John is comfortable with him taking the pill - something from the provided list
-25	John is comfortable with him taking the pill - something from the provided list
-26	John is comfortable with him taking the pill - his choice
-27	John is comfortable with him taking the pill - something from the provided list
-28	John is comfortable with him taking</t>
+          <t xml:space="preserve"> 6	Not comfortable with him taking the pill - no need, nor medically necessary; 4	Not comfortable with him taking the pill - side effect</t>
         </is>
       </c>
     </row>
